--- a/part2/课件/01_课件/Demo字节码的解析.xlsx
+++ b/part2/课件/01_课件/Demo字节码的解析.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\jvm\中篇\课件\01_课件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\jvm\jvm-sgg\part2\课件\01_课件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D207A0C-A3DD-43EA-9834-671C6A9B9429}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C97038A-0AD3-4BD6-869D-0E5EDF16C723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BE2228CD-AD83-4D9A-AC6B-37F5DF0A51ED}"/>
   </bookViews>
@@ -554,7 +554,7 @@
     <author>songhk</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{5C0774E2-FDF9-4F73-ADBB-77E471DAE271}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{5C0774E2-FDF9-4F73-ADBB-77E471DAE271}">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{9EF71691-C9E1-4127-B85F-220252E7D0DF}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{9EF71691-C9E1-4127-B85F-220252E7D0DF}">
       <text>
         <r>
           <rPr>
@@ -602,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{7331E53A-D699-492A-BB6F-901A6033A820}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{7331E53A-D699-492A-BB6F-901A6033A820}">
       <text>
         <r>
           <rPr>
@@ -626,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{C647D209-1318-4F42-92D1-8310DB2F6248}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{C647D209-1318-4F42-92D1-8310DB2F6248}">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{27C8F753-F2EB-4D73-91F0-160E7C4483B5}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{27C8F753-F2EB-4D73-91F0-160E7C4483B5}">
       <text>
         <r>
           <rPr>
@@ -674,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{60867A0A-EA82-499C-8401-ABB90FD296FB}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{60867A0A-EA82-499C-8401-ABB90FD296FB}">
       <text>
         <r>
           <rPr>
@@ -698,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{A9B01DA0-FA7B-4152-852B-F305A1E705A0}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{A9B01DA0-FA7B-4152-852B-F305A1E705A0}">
       <text>
         <r>
           <rPr>
@@ -722,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{1695CE70-3DF9-40C1-A161-EEC7BE7958A1}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{1695CE70-3DF9-40C1-A161-EEC7BE7958A1}">
       <text>
         <r>
           <rPr>
@@ -746,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{96C52170-D3EF-4919-88DD-23B9B402F10C}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{96C52170-D3EF-4919-88DD-23B9B402F10C}">
       <text>
         <r>
           <rPr>
@@ -770,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{E5D36EBE-C6E3-483D-9776-33DE8EA09864}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{E5D36EBE-C6E3-483D-9776-33DE8EA09864}">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{4236E283-F379-4B45-8EE0-D9D01C561BC3}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{4236E283-F379-4B45-8EE0-D9D01C561BC3}">
       <text>
         <r>
           <rPr>
@@ -818,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{64484126-8285-4E8E-9133-C621E46C8BBB}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{64484126-8285-4E8E-9133-C621E46C8BBB}">
       <text>
         <r>
           <rPr>
@@ -842,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{D0C6C7A5-5876-4FF3-A210-A8F9918FE2B0}">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{D0C6C7A5-5876-4FF3-A210-A8F9918FE2B0}">
       <text>
         <r>
           <rPr>
@@ -866,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{0BBD9842-9FA2-4272-9395-BF2F60F3FEC4}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{0BBD9842-9FA2-4272-9395-BF2F60F3FEC4}">
       <text>
         <r>
           <rPr>
@@ -890,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C3BD208A-F51F-4DD2-8193-22C156413508}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{C3BD208A-F51F-4DD2-8193-22C156413508}">
       <text>
         <r>
           <rPr>
@@ -914,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{DB5F257B-DE42-44AE-9B39-080E2F9EE48A}">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{DB5F257B-DE42-44AE-9B39-080E2F9EE48A}">
       <text>
         <r>
           <rPr>
@@ -938,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{F5323DCE-3348-4268-B8BF-5293E01E1814}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{F5323DCE-3348-4268-B8BF-5293E01E1814}">
       <text>
         <r>
           <rPr>
@@ -962,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{66FD1059-BF94-4628-BB2B-4A556EA9D4FC}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{66FD1059-BF94-4628-BB2B-4A556EA9D4FC}">
       <text>
         <r>
           <rPr>
@@ -986,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{7CF74459-1F83-4D24-A827-A89380329014}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{7CF74459-1F83-4D24-A827-A89380329014}">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{509C4CF4-A6CC-4731-B50A-05F80CB3D188}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{509C4CF4-A6CC-4731-B50A-05F80CB3D188}">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{05E8AA61-4314-4DED-B421-96946632250A}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{05E8AA61-4314-4DED-B421-96946632250A}">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="89">
   <si>
     <t>ca</t>
   </si>
@@ -1341,6 +1341,46 @@
   </si>
   <si>
     <t>21=20+1public super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>()V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法返回类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法属性描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1772,7 +1812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1938,12 +1978,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1978,6 +2012,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="24" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2307,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51927A2B-33CD-4048-B572-F618EC48DF97}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3229,22 +3266,22 @@
       <c r="F18" s="53">
         <v>2</v>
       </c>
-      <c r="G18" s="68">
-        <v>0</v>
-      </c>
-      <c r="H18" s="68" t="s">
+      <c r="G18" s="66">
+        <v>0</v>
+      </c>
+      <c r="H18" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="66">
-        <v>0</v>
-      </c>
-      <c r="J18" s="66">
-        <v>0</v>
-      </c>
-      <c r="K18" s="66">
-        <v>0</v>
-      </c>
-      <c r="L18" s="66" t="s">
+      <c r="I18" s="64">
+        <v>0</v>
+      </c>
+      <c r="J18" s="64">
+        <v>0</v>
+      </c>
+      <c r="K18" s="64">
+        <v>0</v>
+      </c>
+      <c r="L18" s="64" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="44">
@@ -3253,10 +3290,10 @@
       <c r="N18" s="44">
         <v>2</v>
       </c>
-      <c r="O18" s="57">
-        <v>0</v>
-      </c>
-      <c r="P18" s="57">
+      <c r="O18" s="55">
+        <v>0</v>
+      </c>
+      <c r="P18" s="55">
         <v>0</v>
       </c>
       <c r="T18" s="43" t="s">
@@ -3264,40 +3301,40 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
-        <v>0</v>
-      </c>
-      <c r="B19" s="60">
+      <c r="A19" s="58">
+        <v>0</v>
+      </c>
+      <c r="B19" s="58">
         <v>7</v>
       </c>
-      <c r="C19" s="57">
-        <v>0</v>
-      </c>
-      <c r="D19" s="57">
+      <c r="C19" s="55">
+        <v>0</v>
+      </c>
+      <c r="D19" s="55">
         <v>4</v>
       </c>
-      <c r="E19" s="60">
-        <v>0</v>
-      </c>
-      <c r="F19" s="60">
+      <c r="E19" s="58">
+        <v>0</v>
+      </c>
+      <c r="F19" s="58">
         <v>8</v>
       </c>
-      <c r="G19" s="68">
-        <v>0</v>
-      </c>
-      <c r="H19" s="68" t="s">
+      <c r="G19" s="66">
+        <v>0</v>
+      </c>
+      <c r="H19" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="66">
-        <v>0</v>
-      </c>
-      <c r="J19" s="66">
-        <v>0</v>
-      </c>
-      <c r="K19" s="66">
-        <v>0</v>
-      </c>
-      <c r="L19" s="66" t="s">
+      <c r="I19" s="64">
+        <v>0</v>
+      </c>
+      <c r="J19" s="64">
+        <v>0</v>
+      </c>
+      <c r="K19" s="64">
+        <v>0</v>
+      </c>
+      <c r="L19" s="64" t="s">
         <v>23</v>
       </c>
       <c r="M19" s="44">
@@ -3306,10 +3343,10 @@
       <c r="N19" s="44">
         <v>1</v>
       </c>
-      <c r="O19" s="57">
-        <v>0</v>
-      </c>
-      <c r="P19" s="57">
+      <c r="O19" s="55">
+        <v>0</v>
+      </c>
+      <c r="P19" s="55">
         <v>0</v>
       </c>
       <c r="R19" s="20" t="s">
@@ -3320,10 +3357,10 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="61">
-        <v>0</v>
-      </c>
-      <c r="B20" s="61" t="s">
+      <c r="A20" s="59">
+        <v>0</v>
+      </c>
+      <c r="B20" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="48">
@@ -3332,10 +3369,10 @@
       <c r="D20" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="63">
-        <v>0</v>
-      </c>
-      <c r="F20" s="63" t="s">
+      <c r="E20" s="61">
+        <v>0</v>
+      </c>
+      <c r="F20" s="61" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="1">
@@ -3592,7 +3629,7 @@
       <c r="P24" s="1">
         <v>0</v>
       </c>
-      <c r="T24" s="67" t="s">
+      <c r="T24" s="65" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3644,7 +3681,7 @@
       <c r="R25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="T25" s="65" t="s">
+      <c r="T25" s="63" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3660,7 +3697,7 @@
       <c r="R27" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="T27" s="58" t="s">
+      <c r="T27" s="56" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3668,7 +3705,7 @@
       <c r="R28" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="59" t="s">
+      <c r="T28" s="57" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3678,7 +3715,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T30" s="62" t="s">
+      <c r="T30" s="60" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3694,7 +3731,7 @@
       <c r="R32" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="T32" s="64" t="s">
+      <c r="T32" s="62" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3721,917 +3758,950 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F30E12F-1082-4DB7-B4D2-C2D940C9B1E5}">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
+    <row r="2" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
+    <row r="3" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>34</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
+    <row r="4" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
       <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
       <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="14" t="s">
+    </row>
+    <row r="6" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>13</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    </row>
+    <row r="7" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>75</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10">
+        <v>69</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="10">
+        <v>69</v>
+      </c>
+      <c r="I11" s="10">
+        <v>74</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="G13" s="10">
+        <v>64</v>
+      </c>
+      <c r="H13" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11">
+        <v>69</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="11">
+        <v>65</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="11">
+        <v>75</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="11">
+        <v>62</v>
+      </c>
+      <c r="M14" s="11">
+        <v>65</v>
+      </c>
+      <c r="N14" s="11">
+        <v>72</v>
+      </c>
+      <c r="O14" s="11">
+        <v>54</v>
+      </c>
+      <c r="P14" s="11">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>62</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="10">
+        <v>63</v>
+      </c>
+      <c r="H15" s="10">
+        <v>61</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="10">
+        <v>56</v>
+      </c>
+      <c r="K15" s="10">
+        <v>61</v>
+      </c>
+      <c r="L15" s="10">
+        <v>72</v>
+      </c>
+      <c r="M15" s="10">
+        <v>69</v>
+      </c>
+      <c r="N15" s="10">
+        <v>61</v>
+      </c>
+      <c r="O15" s="10">
+        <v>62</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>65</v>
+      </c>
+      <c r="R15" s="10">
+        <v>54</v>
+      </c>
+      <c r="S15" s="10">
+        <v>61</v>
+      </c>
+      <c r="T15" s="10">
+        <v>62</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>74</v>
+      </c>
+      <c r="F16" s="11">
+        <v>68</v>
+      </c>
+      <c r="G16" s="11">
+        <v>69</v>
+      </c>
+      <c r="H16" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="10">
+        <v>63</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="10">
+        <v>61</v>
+      </c>
+      <c r="K17" s="10">
+        <v>74</v>
+      </c>
+      <c r="L17" s="10">
+        <v>67</v>
+      </c>
+      <c r="M17" s="10">
+        <v>75</v>
+      </c>
+      <c r="N17" s="10">
+        <v>69</v>
+      </c>
+      <c r="O17" s="10">
+        <v>67</v>
+      </c>
+      <c r="P17" s="10">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="10">
+        <v>61</v>
+      </c>
+      <c r="T17" s="10">
+        <v>76</v>
+      </c>
+      <c r="U17" s="10">
+        <v>61</v>
+      </c>
+      <c r="V17" s="10">
+        <v>31</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="10">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>65</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>7</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10">
-        <v>75</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10">
-        <v>69</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10">
-        <v>69</v>
-      </c>
-      <c r="H11" s="10">
-        <v>74</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11">
-        <v>28</v>
-      </c>
-      <c r="E12" s="11">
-        <v>29</v>
-      </c>
-      <c r="F12" s="11">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>4</v>
-      </c>
-      <c r="D13" s="10">
-        <v>43</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="10">
-        <v>64</v>
-      </c>
-      <c r="G13" s="10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11">
-        <v>69</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="11">
-        <v>65</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="11">
-        <v>75</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="11">
-        <v>62</v>
-      </c>
-      <c r="L14" s="11">
-        <v>65</v>
-      </c>
-      <c r="M14" s="11">
-        <v>72</v>
-      </c>
-      <c r="N14" s="11">
-        <v>54</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="E18" s="11">
         <v>61</v>
-      </c>
-      <c r="P14" s="11">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" s="11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>1</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10">
-        <v>63</v>
-      </c>
-      <c r="G15" s="10">
-        <v>61</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="10">
-        <v>56</v>
-      </c>
-      <c r="J15" s="10">
-        <v>61</v>
-      </c>
-      <c r="K15" s="10">
-        <v>72</v>
-      </c>
-      <c r="L15" s="10">
-        <v>69</v>
-      </c>
-      <c r="M15" s="10">
-        <v>61</v>
-      </c>
-      <c r="N15" s="10">
-        <v>62</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="10">
-        <v>65</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>54</v>
-      </c>
-      <c r="R15" s="10">
-        <v>61</v>
-      </c>
-      <c r="S15" s="10">
-        <v>62</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="U15" s="10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>4</v>
-      </c>
-      <c r="D16" s="11">
-        <v>74</v>
-      </c>
-      <c r="E16" s="11">
-        <v>68</v>
-      </c>
-      <c r="F16" s="11">
-        <v>69</v>
-      </c>
-      <c r="G16" s="11">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10">
-        <v>63</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="10">
-        <v>61</v>
-      </c>
-      <c r="J17" s="10">
-        <v>74</v>
-      </c>
-      <c r="K17" s="10">
-        <v>67</v>
-      </c>
-      <c r="L17" s="10">
-        <v>75</v>
-      </c>
-      <c r="M17" s="10">
-        <v>69</v>
-      </c>
-      <c r="N17" s="10">
-        <v>67</v>
-      </c>
-      <c r="O17" s="10">
-        <v>75</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="10">
-        <v>61</v>
-      </c>
-      <c r="S17" s="10">
-        <v>76</v>
-      </c>
-      <c r="T17" s="10">
-        <v>61</v>
-      </c>
-      <c r="U17" s="10">
-        <v>31</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="10">
-        <v>44</v>
-      </c>
-      <c r="X17" s="10">
-        <v>65</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>1</v>
-      </c>
-      <c r="B18" s="11">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11">
-        <v>3</v>
-      </c>
-      <c r="D18" s="11">
-        <v>61</v>
-      </c>
-      <c r="E18" s="11">
-        <v>64</v>
       </c>
       <c r="F18" s="11">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>1</v>
-      </c>
+      <c r="G18" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
         <v>3</v>
       </c>
-      <c r="D19" s="10">
+      <c r="E19" s="10">
         <v>28</v>
       </c>
-      <c r="E19" s="10">
+      <c r="F19" s="10">
         <v>29</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G19" s="10">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>1</v>
-      </c>
+    <row r="20" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="11">
+      <c r="E20" s="11">
         <v>53</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="11">
+      <c r="G20" s="11">
         <v>75</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>72</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="11">
         <v>63</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <v>65</v>
       </c>
-      <c r="J20" s="11">
+      <c r="K20" s="11">
         <v>46</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <v>69</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N20" s="11">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>1</v>
-      </c>
+    <row r="21" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
         <v>9</v>
       </c>
-      <c r="D21" s="10">
+      <c r="E21" s="10">
         <v>44</v>
       </c>
-      <c r="E21" s="10">
+      <c r="F21" s="10">
         <v>65</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="10">
+      <c r="K21" s="10">
         <v>61</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L21" s="10">
         <v>76</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="11">
-        <v>0</v>
-      </c>
       <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
         <v>7</v>
       </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
       <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
       <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
         <v>5</v>
       </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
       <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>1</v>
-      </c>
+    <row r="24" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
         <v>16</v>
       </c>
-      <c r="D24" s="11">
+      <c r="E24" s="11">
         <v>63</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>61</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>74</v>
       </c>
-      <c r="J24" s="11">
+      <c r="K24" s="11">
         <v>67</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>75</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>69</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <v>67</v>
       </c>
-      <c r="N24" s="11">
+      <c r="O24" s="11">
         <v>75</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="P24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="Q24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="R24" s="11">
         <v>61</v>
       </c>
-      <c r="R24" s="11">
+      <c r="S24" s="11">
         <v>76</v>
       </c>
-      <c r="S24" s="11">
+      <c r="T24" s="11">
         <v>61</v>
       </c>
-      <c r="T24" s="11">
+      <c r="U24" s="11">
         <v>31</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="V24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V24" s="11">
+      <c r="W24" s="11">
         <v>44</v>
       </c>
-      <c r="W24" s="11">
+      <c r="X24" s="11">
         <v>65</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="Y24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
         <v>10</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="10">
+      <c r="F25" s="10">
         <v>61</v>
       </c>
-      <c r="F25" s="10">
+      <c r="G25" s="10">
         <v>76</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H25" s="10">
         <v>61</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="10">
+      <c r="K25" s="10">
         <v>61</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="L25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="10">
+      <c r="M25" s="10">
         <v>67</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="N25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="O25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="10">
+      <c r="P25" s="10">
         <v>62</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="Q25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="R25" s="10">
         <v>65</v>
       </c>
-      <c r="R25" s="10">
+      <c r="S25" s="10">
         <v>63</v>
       </c>
-      <c r="S25" s="12">
+      <c r="T25" s="12">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>0</v>
+    <row r="26" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
       </c>
       <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
         <v>21</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>0</v>
-      </c>
+    <row r="27" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15">
         <v>3</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="H27" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>0</v>
-      </c>
+    <row r="28" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B28" s="17">
+        <v>0</v>
+      </c>
+      <c r="C28" s="17">
         <v>4</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="H28" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0</v>
-      </c>
+    <row r="29" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>0</v>
-      </c>
+    <row r="30" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B30" s="19">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <v>0</v>
-      </c>
+    <row r="31" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
+        <v>0</v>
+      </c>
+      <c r="C31" s="21">
         <v>2</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="H31" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
-        <v>0</v>
-      </c>
+    <row r="32" spans="1:28" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B32" s="23">
+        <v>0</v>
+      </c>
+      <c r="C32" s="23">
         <v>5</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="H32" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
-        <v>0</v>
-      </c>
+    <row r="33" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
+        <v>0</v>
+      </c>
+      <c r="C33" s="25">
         <v>6</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="H33" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>0</v>
-      </c>
+    <row r="34" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B34" s="27">
         <v>0</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="C34" s="27">
+        <v>0</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
-        <v>0</v>
-      </c>
+    <row r="35" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B35" s="30">
+        <v>0</v>
+      </c>
+      <c r="C35" s="30">
         <v>2</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="H35" s="31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
-        <v>0</v>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
+        <v>81</v>
       </c>
       <c r="B36" s="32">
-        <v>1</v>
-      </c>
-      <c r="G36" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="32">
+        <v>1</v>
+      </c>
+      <c r="H36" s="33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>0</v>
-      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="67"/>
       <c r="B37" s="19">
+        <v>0</v>
+      </c>
+      <c r="C37" s="19">
         <v>7</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="H37" s="20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
-        <v>0</v>
-      </c>
+      <c r="I37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="67"/>
       <c r="B38" s="34">
+        <v>0</v>
+      </c>
+      <c r="C38" s="34">
         <v>8</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="H38" s="35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
-        <v>0</v>
-      </c>
+      <c r="I38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
       <c r="B39" s="37">
-        <v>1</v>
-      </c>
-      <c r="G39" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="37">
+        <v>1</v>
+      </c>
+      <c r="H39" s="36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
-        <v>0</v>
-      </c>
+      <c r="I39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="67"/>
       <c r="B40" s="38">
+        <v>0</v>
+      </c>
+      <c r="C40" s="38">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
-        <v>0</v>
-      </c>
+      <c r="L40" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="67"/>
       <c r="B41" s="40">
         <v>0</v>
       </c>
@@ -4639,112 +4709,630 @@
         <v>0</v>
       </c>
       <c r="D41" s="40">
+        <v>0</v>
+      </c>
+      <c r="E41" s="40">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="42">
-        <v>0</v>
-      </c>
+      <c r="L41" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="67"/>
       <c r="B42" s="42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="44">
-        <v>0</v>
-      </c>
+      <c r="L42" s="43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="67"/>
       <c r="B43" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C43" s="44">
+        <v>1</v>
+      </c>
+      <c r="L43" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="67"/>
       <c r="B44" s="46">
         <v>0</v>
       </c>
       <c r="C44" s="46">
         <v>0</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="46">
+        <v>0</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
+      <c r="L44" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="67"/>
+      <c r="B45" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="C45" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="49">
-        <v>0</v>
-      </c>
       <c r="D45" s="49">
-        <v>1</v>
-      </c>
-      <c r="E45" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="49">
+        <v>1</v>
+      </c>
+      <c r="F45" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="49">
+      <c r="G45" s="49">
         <v>4</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="H45" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="49">
-        <v>0</v>
-      </c>
-      <c r="I45" s="48">
+      <c r="I45" s="49">
+        <v>0</v>
+      </c>
+      <c r="J45" s="48">
         <v>2</v>
       </c>
-      <c r="J45" s="48" t="s">
+      <c r="K45" s="48" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="51">
-        <v>0</v>
-      </c>
+      <c r="L45" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="67"/>
       <c r="B46" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="53">
-        <v>0</v>
-      </c>
+      <c r="C46" s="51">
+        <v>0</v>
+      </c>
+      <c r="L46" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
       <c r="B47" s="53">
+        <v>0</v>
+      </c>
+      <c r="C47" s="53">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="55">
-        <v>0</v>
-      </c>
-      <c r="B48" s="55" t="s">
+      <c r="L47" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="67"/>
+      <c r="B48" s="66">
+        <v>0</v>
+      </c>
+      <c r="C48" s="66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="56">
-        <v>0</v>
-      </c>
-      <c r="B49" s="56">
-        <v>0</v>
-      </c>
-      <c r="C49" s="56">
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="s">
+      <c r="L48" s="65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="67"/>
+      <c r="B49" s="64">
+        <v>0</v>
+      </c>
+      <c r="C49" s="64">
+        <v>0</v>
+      </c>
+      <c r="D49" s="64">
+        <v>0</v>
+      </c>
+      <c r="E49" s="64" t="s">
         <v>4</v>
       </c>
+      <c r="L49" s="63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="67"/>
+      <c r="B50" s="44">
+        <v>0</v>
+      </c>
+      <c r="C50" s="44">
+        <v>2</v>
+      </c>
+      <c r="L50" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="67"/>
+      <c r="B51" s="55">
+        <v>0</v>
+      </c>
+      <c r="C51" s="55">
+        <v>0</v>
+      </c>
+      <c r="L51" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="67"/>
+      <c r="B52" s="58">
+        <v>0</v>
+      </c>
+      <c r="C52" s="58">
+        <v>7</v>
+      </c>
+      <c r="L52" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="67"/>
+      <c r="B53" s="55">
+        <v>0</v>
+      </c>
+      <c r="C53" s="55">
+        <v>4</v>
+      </c>
+      <c r="L53" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="67"/>
+      <c r="B54" s="58">
+        <v>0</v>
+      </c>
+      <c r="C54" s="58">
+        <v>8</v>
+      </c>
+      <c r="L54" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="67"/>
+      <c r="B55" s="66">
+        <v>0</v>
+      </c>
+      <c r="C55" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="67"/>
+      <c r="B56" s="64">
+        <v>0</v>
+      </c>
+      <c r="C56" s="64">
+        <v>0</v>
+      </c>
+      <c r="D56" s="64">
+        <v>0</v>
+      </c>
+      <c r="E56" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="67"/>
+      <c r="B57" s="44">
+        <v>0</v>
+      </c>
+      <c r="C57" s="44">
+        <v>1</v>
+      </c>
+      <c r="L57" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="67"/>
+      <c r="B58" s="55">
+        <v>0</v>
+      </c>
+      <c r="C58" s="55">
+        <v>0</v>
+      </c>
+      <c r="L58" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="67"/>
+      <c r="B59" s="59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="67"/>
+      <c r="B60" s="48">
+        <v>0</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="67"/>
+      <c r="B61" s="61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="67"/>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="29">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="32">
+        <v>0</v>
+      </c>
+      <c r="C63" s="32">
+        <v>1</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="67"/>
+      <c r="B64" s="19">
+        <v>0</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="67"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="67"/>
+      <c r="B65" s="34">
+        <v>0</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="67"/>
+    </row>
+    <row r="66" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="67"/>
+      <c r="B66" s="37">
+        <v>0</v>
+      </c>
+      <c r="C66" s="37">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="67"/>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="67"/>
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>60</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="67"/>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="67"/>
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="67"/>
+      <c r="B71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B72" s="30">
+        <v>0</v>
+      </c>
+      <c r="C72" s="30">
+        <v>1</v>
+      </c>
+      <c r="L72" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B73" s="32">
+        <v>0</v>
+      </c>
+      <c r="C73" s="32">
+        <v>10</v>
+      </c>
+      <c r="L73" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B74" s="19">
+        <v>0</v>
+      </c>
+      <c r="C74" s="19">
+        <v>0</v>
+      </c>
+      <c r="D74" s="19">
+        <v>0</v>
+      </c>
+      <c r="E74" s="19">
+        <v>2</v>
+      </c>
+      <c r="L74" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B75" s="34">
+        <v>0</v>
+      </c>
+      <c r="C75" s="34">
+        <v>11</v>
+      </c>
+      <c r="L75" s="35" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A36:A62"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="D63:D65"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>